--- a/data/excel/verbs.xlsx
+++ b/data/excel/verbs.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,384 +450,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11178</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>stádi</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>estudiar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11179</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>lern</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>aprender</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11180</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>teach</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>tich</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>enseñar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11181</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>train</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>trein</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>entrenar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11182</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>probar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11183</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>examine</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>igzámin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>examinar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11184</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>work</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>uork</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>trabajar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11185</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>manage</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>mánidy</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>administrar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11186</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>lead</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>lid</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>liderar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11187</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>follow</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>fólou</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>seguir</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11188</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>organize</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>orgánais</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>organizar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11189</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>planear</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11190</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>prepare</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>pripér</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>preparar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11191</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>jelp</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>ayudar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11192</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>sapórt</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>apoyar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11193</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>build</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>bild</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>construir</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11194</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>develop</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>divélop</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>desarrollar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11195</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>create</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kriéit</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>crear</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11196</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>analyze</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>análais</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>analizar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11197</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>improve</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>imprúuv</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>mejorar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -840,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,384 +916,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>go</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>gou</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ir</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11001</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>come</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>com</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>venir</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>run</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ron</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>correr</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11003</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>walk</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>uok</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>caminar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11004</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>leave</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>liiv</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>salir</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11005</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>arrive</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>aráiv</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>llegar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11006</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>muuv</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>mover</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11007</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>jump</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>yomp</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>saltar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11008</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>flai</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>volar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11009</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>drive</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>draiv</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>conducir</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11010</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>ride</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>raid</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>cabalgar/montar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11011</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>crawl</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>krol</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>arrastrarse</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11012</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>climb</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>klaim</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>escalar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11013</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>step</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>step</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>pisar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11014</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>slide</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>eslaid</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>deslizar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11015</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>roll</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>roul</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>rodar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11016</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>swim</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>suim</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>nadar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11017</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>fall</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>fol</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>caer</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11018</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>stand</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>stand</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>estar de pie</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11019</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>sit</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>sit</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>sentarse</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1241,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,384 +1382,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11080</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>see</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>sii</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ver</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11081</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>look</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>luk</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>mirar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11082</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>watch</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>uoch</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>observar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11083</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>hear</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>jir</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>oír</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11084</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>listen</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>lisen</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>escuchar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11085</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>smell</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>smel</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>oler</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11086</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>taste</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>teist</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>probar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11087</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>touch</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>toch</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>tocar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11088</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>feel</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>fiil</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>sentir</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11089</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>notice</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>nóutis</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>notar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11090</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>observe</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>obzérv</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>observar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11091</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>detect</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ditékt</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>detectar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11092</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>glance</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>glans</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>echar un vistazo</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11093</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>stare</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>ster</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>mirar fijamente</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11094</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>peek</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>pik</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>espiar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11095</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>perceive</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>persíiv</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>percibir</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11096</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>sense</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>sens</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>presenciar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11097</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>view</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>viu</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>ver (visualizar)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11098</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>scan</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>skan</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>escanear</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11099</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>examine</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>igzámin</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>examinar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1642,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,384 +1848,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11020</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>wake</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>ueik</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>despertar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11021</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>sleep</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>slip</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>dormir</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11022</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>eat</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>iit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>comer</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11023</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>drink</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>driink</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>beber</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11024</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>brush</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>brosh</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>cepillar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11025</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>shower</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>sháuer</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>ducharse</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11026</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>guet</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>conseguir</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11027</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>dress</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>dres</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>vestirse</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11028</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>cook</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>kuk</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>cocinar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11029</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>klin</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>limpiar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11030</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>wash</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>uosh</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>lavar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11031</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>dry</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>drai</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>secar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>oupn</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>abrir</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11033</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>klous</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>cerrar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11034</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>take</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>teik</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>tomar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11035</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>poner</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11036</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>make</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>meik</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>hacer</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11037</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>turn</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>tern</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>girar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11038</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>empezar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11039</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>stop</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>stop</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>parar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2043,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,384 +2314,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11238</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>meet</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>mit</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>conocer</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11239</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>greet</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>grit</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>saludar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11240</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>invite</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>inváit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>invitar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11241</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>join</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>yoin</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>unirse</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11242</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>visit</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>vísit</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>visitar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11243</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>host</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>jost</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>recibir</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11244</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>attend</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>aténd</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>asistir</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11245</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>celebrate</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>sélebreit</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>celebrar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11246</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>chat</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>charlar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11247</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>flirt</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>flert</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>coquetear</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11248</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>deit</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>salir (cita)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11249</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>marry</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>mári</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>casarse</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11250</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>hug</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>jog</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>abrazar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11251</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>kiss</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>kis</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>besar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11252</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>argue</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>arguiu</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>discutir</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11253</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>agree</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>agrí</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>estar de acuerdo</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11254</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>apologize</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>apólodchais</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>disculparse</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11255</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>congratulate</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kongráchuleit</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>felicitar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11256</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>joke</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>youk</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>bromear</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11257</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>share</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>sher</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>compartir</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2444,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2455,384 +2780,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11278</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>get up</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>guet ap</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>levantarse</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11279</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>turn on</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>turn on</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>encender</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11280</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>turn off</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>turn off</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>apagar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11281</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>look for</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>luk for</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>buscar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11282</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>look after</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>luk áfter</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>cuidar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11283</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>take off</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>teik off</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>quitarse</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11284</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>put on</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>put on</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>ponerse</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11285</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>find out</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>faind aut</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>descubrir</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11286</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>give up</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>guiv ap</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>rendirse</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11287</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>go on</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>gou on</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>continuar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11288</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>come back</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>com bac</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>volver</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11289</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>check out</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>chek aut</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>verificar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11290</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>set up</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>set ap</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>configurar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11291</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>break down</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>breik daun</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>romperse</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11292</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>log in</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>log in</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>iniciar sesión</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11293</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>log out</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>log aut</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>cerrar sesión</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11294</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>fill in</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>fil in</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>rellenar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11295</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>run out</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>ron aut</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>agotarse</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11296</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>get in</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>guet in</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>entrar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11297</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>show up</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>shou ap</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>aparecer</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2845,7 +3235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,384 +3246,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11218</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>travel</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>trável</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>viajar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11219</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>drive</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>draiv</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>conducir</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11220</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>flai</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>volar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11221</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>sail</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>seil</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>navegar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11222</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>ride</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>raid</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>cabalgar/montar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11223</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>board</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>bord</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>abordar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11224</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>depart</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>dipárt</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>partir</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11225</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>arrive</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>aráiv</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>llegar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11226</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>aterrizar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11227</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>park</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>park</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>estacionar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11228</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>guide</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>gaid</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>guiar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11229</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>pak</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>empacar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11230</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>unpack</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>anpák</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>desempacar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11231</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>explore</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>eksplór</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>explorar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11232</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>reserve</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>risérv</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>reservar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11233</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>check</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>chek</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>revisar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11234</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ueit</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>esperar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11235</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>carry</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kári</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>llevar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11236</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>transport</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>transpórt</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>transportar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11237</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>ritérn</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>volver</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3246,7 +3701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,384 +3712,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11258</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>change</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>cheindch</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>cambiar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11259</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>grow</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>grou</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>crecer</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11260</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>improve</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>imprúuv</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>mejorar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11261</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>develop</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>divélop</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>desarrollar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11262</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>become</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>bikám</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>llegar a ser</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11263</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>transform</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>transfórm</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>transformar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11264</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>adapt</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>adápt</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>adaptar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11265</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>evolve</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>ivólv</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>evolucionar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11266</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>switch</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>suich</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>cambiar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11267</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>upgrade</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>apgréid</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>actualizar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11268</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>apdéit</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>actualizar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11269</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>move</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>muuv</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>mover</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11270</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>replace</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>ripléis</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>reemplazar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11271</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>fiks</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>arreglar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11272</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>adjust</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>adchást</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>ajustar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11273</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>rise</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>rais</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>aumentar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11274</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>fall</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>fol</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>caer</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11275</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>reduce</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>ridiús</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>reducir</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11276</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>increase</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>inkrís</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>aumentar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11277</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>simplify</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>símplifai</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>simplificar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3647,7 +4167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3658,384 +4178,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11060</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>say</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>sei</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>decir</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11061</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>tell</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>tel</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>contar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11062</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>ask</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ask</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>preguntar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11063</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>answer</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>ánser</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>responder</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11064</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>talk</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>tok</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>hablar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11065</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>speak</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>spik</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>hablar (formal)</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11066</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>discuss</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>diskás</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>discutir</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11067</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>explain</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>ekspléin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>explicar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11068</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>shout</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>shaut</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>gritar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11069</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>whisper</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>uísper</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>susurrar</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11070</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>call</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>kol</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>llamar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11071</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>reply</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>riplái</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>responder</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11072</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>mention</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>ménshon</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>mencionar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11073</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>promise</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>prómis</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>prometer</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11074</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>agree</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>agrí</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>estar de acuerdo</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11075</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>admit</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>admít</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>admitir</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11076</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>argue</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>arguiu</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>discutir (pelear)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11077</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>complain</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kempléin</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>quejarse</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11078</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>suggest</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>saguést</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>sugerir</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11079</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>announce</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>anáuns</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>anunciar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4048,7 +4633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4059,366 +4644,428 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11159</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>breathe</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>brid</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>respirar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11160</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>blink</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>blink</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>parpadear</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11161</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>sweat</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>suet</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>sudar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11162</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>cry</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>krai</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>llorar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11163</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>cough</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>kof</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>toser</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11164</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>sneeze</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>snis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>estornudar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11165</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>yawn</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>ion</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>bostezar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11166</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>swallow</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>suálou</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>tragar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11167</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>scratch</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>skrach</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>rascar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11168</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>nod</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>nod</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>asentir</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>stretch</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>strech</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>estirarse</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11170</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>bend</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>bend</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>doblar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11171</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>shiver</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>shíver</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>tiritar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11172</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>sniff</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>snif</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>olfatear</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11173</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>smile</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>smail</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>sonreír</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11174</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>frown</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>fraun</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>fruncir el ceño</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11175</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>touch</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>toch</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>tocar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>kick</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kik</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>patear</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11177</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>rub</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>rab</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>frotar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4431,7 +5078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4442,384 +5089,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11139</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>like</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>laik</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>gustar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11140</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>love</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>lov</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>amar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11141</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>hate</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>jeit</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>odiar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11142</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>enjoy</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>inyói</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>disfrutar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11143</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>prefer</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>prifér</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>preferir</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11144</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>miss</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>mis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>extrañar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11145</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>fir</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>temer</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11146</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>worry</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>uári</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>preocuparse</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11147</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>care</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>ker</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>importar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11148</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>feel</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>fiil</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>sentir</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11149</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>need</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>nid</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>necesitar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11150</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>desire</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>disáir</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>desear</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11151</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>appreciate</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>apríshieit</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>apreciar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11152</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>envy</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>énvi</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>envidiar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11153</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>trust</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>trast</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>confiar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11154</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>respect</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>rispékt</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>respetar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11155</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>value</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>váluiu</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>valorar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11156</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>rigrét</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>lamentar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11157</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>admire</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>admáir</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>admirar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11158</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>forgive</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>forguív</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>perdonar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4832,7 +5544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4843,366 +5555,428 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11120</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bi</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>ser/estar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11121</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>have</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>jav</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>tener</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11122</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>exist</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>egzíst</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>existir</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11123</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>seem</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>siim</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>parecer</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11124</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>stay</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>stei</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>quedarse</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11125</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>live</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>liv</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>vivir</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11126</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>remain</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>riméin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>permanecer</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11127</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>become</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>bikám</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>llegar a ser</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11128</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>belong</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>bilóng</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>pertenecer</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11129</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>depend</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>dipénd</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>depender</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11130</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>consist</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>konsíst</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>consistir</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11131</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>appear</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>apír</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>aparecer</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11132</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>occur</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>okúr</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>ocurrir</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11133</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>happen</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>jápen</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>suceder</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11134</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>rest</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>rest</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>descansar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11135</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>contain</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>kontéin</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>contener</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11136</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>include</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>inklúid</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>incluir</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11137</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>own</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>oun</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>poseer</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11138</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>possess</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>posés</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>poseer</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5215,7 +5989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5226,384 +6000,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11198</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>cook</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>kuk</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>cocinar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11199</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>klin</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>limpiar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11200</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>wash</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>uosh</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>lavar</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11201</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>sweep</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>suip</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>barrer</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11202</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>mop</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>mop</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>trapear</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11203</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>vacuum</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>vákium</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>aspirar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11204</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>tidy</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>táidi</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>ordenar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11205</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>fix</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>fiks</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>arreglar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11206</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>iron</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>áirn</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>planchar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11207</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>sew</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>sou</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>coser</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11208</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>uóter</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>regar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11209</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>plant</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>plant</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>plantar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11210</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>paint</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>peint</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>pintar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11211</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>decorate</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>dékoreit</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>decorar</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11212</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>store</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>stor</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>almacenar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11213</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>repair</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ripér</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>reparar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11214</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>aréindy</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>organizar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11215</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>fold</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>fold</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>doblar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11216</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>hang</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>jang</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>colgar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11217</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>scrub</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>skrob</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>restregar</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5616,7 +6455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5627,384 +6466,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11100</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>hold</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>jold</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>sostener</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11101</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>grab</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>grab</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>agarrar</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11102</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>pick</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>pik</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>escoger</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11103</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>throw</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>zrou</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>lanzar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11104</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>catch</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>kach</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>atrapar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11105</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>push</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>push</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>empujar</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11106</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>pull</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>pul</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>tirar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11107</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>break</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>breik</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>romper</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11108</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>cut</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>kat</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>cortar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11109</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>hit</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>jit</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>golpear</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11110</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>press</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>pres</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>presionar</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11111</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>squeeze</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>skuís</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>apretar</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11112</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>twist</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>tuist</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>torcer</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11113</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>sheik</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>sacudir</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11114</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>drop</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>drop</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>soltar</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11115</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>lift</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>lift</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>levantar</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11116</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>pour</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>por</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>verter</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11117</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>stretch</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>strech</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>estirar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11118</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>tie</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>tai</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>atar</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11119</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>wrap</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>rap</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>envolver</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6017,7 +6921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6028,384 +6932,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>11040</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>think</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>zink</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>pensar</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>11041</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>know</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>nou</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>saber</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>11042</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>understand</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>anderstend</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>entender</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>11043</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>remember</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>rimémber</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>recordar</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>11044</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>forget</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>forguet</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>olvidar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>11045</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>believe</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>bilíiv</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>creer</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>11046</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>imagine</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>imáyin</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>imaginar</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>11047</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>guess</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>ges</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>adivinar</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11048</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>consider</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>konsíder</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>considerar</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>11049</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>decide</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>disáid</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>decidir</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11050</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>lern</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>aprender</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>11051</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>realize</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ríalais</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>darse cuenta</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>11052</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>fóukas</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>enfocar</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>11053</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>planear</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>11054</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>expect</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>ekspékt</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>esperar (esperanza)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>11055</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>suppose</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>sapóus</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>suponer</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>11056</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>doubt</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>daut</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>dudar</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>11057</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>notice</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>nóutis</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>notar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>11058</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>recognize</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>rékognais</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>reconocer</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>11059</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>wonder</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>uónder</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>preguntarse</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/verbs.xlsx
+++ b/data/excel/verbs.xlsx
@@ -7,21 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aprendizaje  trabajo" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comunicación" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuerpo" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Emocionales" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estado  existencia" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hogar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manipulación física" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentales" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movimiento físico" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Percepción" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rutina diaria" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Movimiento físico" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rutina diaria" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mentales" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comunicación" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Percepción" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Manipulación física" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estado  existencia" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Emocionales" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuerpo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aprendizaje  trabajo" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hogar" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Viaje" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sociales" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Verbos compuestos comunes" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Viaje" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Verbos compuestos comunes" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,420 +476,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11178</v>
+        <v>11000</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>stádi</t>
+          <t>gou</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>estudiar</t>
+          <t>ir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11179</v>
+        <v>11001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>come</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lern</t>
+          <t>com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>aprender</t>
+          <t>venir</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11180</v>
+        <v>11002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>teach</t>
+          <t>run</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tich</t>
+          <t>ron</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>enseñar</t>
+          <t>correr</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11181</v>
+        <v>11003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>walk</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>trein</t>
+          <t>uok</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>entrenar</t>
+          <t>caminar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11182</v>
+        <v>11004</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>leave</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>liiv</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>probar</t>
+          <t>salir</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11183</v>
+        <v>11005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>arrive</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>igzámin</t>
+          <t>aráiv</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>examinar</t>
+          <t>llegar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11184</v>
+        <v>11006</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>move</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>uork</t>
+          <t>muuv</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>trabajar</t>
+          <t>mover</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11185</v>
+        <v>11007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>manage</t>
+          <t>jump</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mánidy</t>
+          <t>yomp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>administrar</t>
+          <t>saltar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11186</v>
+        <v>11008</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lead</t>
+          <t>fly</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lid</t>
+          <t>flai</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>liderar</t>
+          <t>volar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11187</v>
+        <v>11009</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>follow</t>
+          <t>drive</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fólou</t>
+          <t>draiv</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>seguir</t>
+          <t>conducir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11188</v>
+        <v>11010</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>organize</t>
+          <t>ride</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>orgánais</t>
+          <t>raid</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organizar</t>
+          <t>cabalgar/montar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11189</v>
+        <v>11011</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>crawl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>krol</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>planear</t>
+          <t>arrastrarse</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11190</v>
+        <v>11012</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>prepare</t>
+          <t>climb</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pripér</t>
+          <t>klaim</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>preparar</t>
+          <t>escalar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11191</v>
+        <v>11013</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>step</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>jelp</t>
+          <t>step</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ayudar</t>
+          <t>pisar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11192</v>
+        <v>11014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>slide</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sapórt</t>
+          <t>eslaid</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>apoyar</t>
+          <t>deslizar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11193</v>
+        <v>11015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>roll</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>bild</t>
+          <t>roul</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>construir</t>
+          <t>rodar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11194</v>
+        <v>11016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>swim</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>divélop</t>
+          <t>suim</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>desarrollar</t>
+          <t>nadar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11195</v>
+        <v>11017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>create</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kriéit</t>
+          <t>fol</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>crear</t>
+          <t>caer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11196</v>
+        <v>11018</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>stand</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>análais</t>
+          <t>stand</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>analizar</t>
+          <t>estar de pie</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11197</v>
+        <v>11019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>imprúuv</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mejorar</t>
+          <t>sentarse</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -942,420 +942,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11000</v>
+        <v>11178</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gou</t>
+          <t>stádi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ir</t>
+          <t>estudiar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11001</v>
+        <v>11179</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>come</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>com</t>
+          <t>lern</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>venir</t>
+          <t>aprender</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11002</v>
+        <v>11180</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>run</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ron</t>
+          <t>tich</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>correr</t>
+          <t>enseñar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11003</v>
+        <v>11181</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>walk</t>
+          <t>train</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>uok</t>
+          <t>trein</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>caminar</t>
+          <t>entrenar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11004</v>
+        <v>11182</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>leave</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>liiv</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>salir</t>
+          <t>probar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11005</v>
+        <v>11183</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arrive</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>aráiv</t>
+          <t>igzámin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>llegar</t>
+          <t>examinar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11006</v>
+        <v>11184</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>work</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>muuv</t>
+          <t>uork</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>mover</t>
+          <t>trabajar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11007</v>
+        <v>11185</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jump</t>
+          <t>manage</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>yomp</t>
+          <t>mánidy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>saltar</t>
+          <t>administrar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11008</v>
+        <v>11186</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fly</t>
+          <t>lead</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>flai</t>
+          <t>lid</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>volar</t>
+          <t>liderar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11009</v>
+        <v>11187</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>drive</t>
+          <t>follow</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>draiv</t>
+          <t>fólou</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>conducir</t>
+          <t>seguir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11010</v>
+        <v>11188</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ride</t>
+          <t>organize</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>raid</t>
+          <t>orgánais</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cabalgar/montar</t>
+          <t>organizar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11011</v>
+        <v>11189</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>crawl</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>krol</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>arrastrarse</t>
+          <t>planear</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11012</v>
+        <v>11190</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>climb</t>
+          <t>prepare</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>klaim</t>
+          <t>pripér</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>escalar</t>
+          <t>preparar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11013</v>
+        <v>11191</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>help</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>step</t>
+          <t>jelp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pisar</t>
+          <t>ayudar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11014</v>
+        <v>11192</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>slide</t>
+          <t>support</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>eslaid</t>
+          <t>sapórt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>deslizar</t>
+          <t>apoyar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11015</v>
+        <v>11193</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>roll</t>
+          <t>build</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>roul</t>
+          <t>bild</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>rodar</t>
+          <t>construir</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11016</v>
+        <v>11194</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>swim</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>suim</t>
+          <t>divélop</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>nadar</t>
+          <t>desarrollar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11017</v>
+        <v>11195</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>create</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>fol</t>
+          <t>kriéit</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>caer</t>
+          <t>crear</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11018</v>
+        <v>11196</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>análais</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>estar de pie</t>
+          <t>analizar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11019</v>
+        <v>11197</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>imprúuv</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sentarse</t>
+          <t>mejorar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1408,420 +1408,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11080</v>
+        <v>11198</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>see</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sii</t>
+          <t>kuk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ver</t>
+          <t>cocinar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11081</v>
+        <v>11199</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>look</t>
+          <t>clean</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>luk</t>
+          <t>klin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>mirar</t>
+          <t>limpiar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11082</v>
+        <v>11200</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>wash</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>uoch</t>
+          <t>uosh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>observar</t>
+          <t>lavar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11083</v>
+        <v>11201</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>hear</t>
+          <t>sweep</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>jir</t>
+          <t>suip</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>oír</t>
+          <t>barrer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11084</v>
+        <v>11202</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>listen</t>
+          <t>mop</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>lisen</t>
+          <t>mop</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>escuchar</t>
+          <t>trapear</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11085</v>
+        <v>11203</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>smell</t>
+          <t>vacuum</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>smel</t>
+          <t>vákium</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>oler</t>
+          <t>aspirar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11086</v>
+        <v>11204</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>taste</t>
+          <t>tidy</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>teist</t>
+          <t>táidi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>probar</t>
+          <t>ordenar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11087</v>
+        <v>11205</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>touch</t>
+          <t>fix</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>toch</t>
+          <t>fiks</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>tocar</t>
+          <t>arreglar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11088</v>
+        <v>11206</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>iron</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>fiil</t>
+          <t>áirn</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sentir</t>
+          <t>planchar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11089</v>
+        <v>11207</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>notice</t>
+          <t>sew</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nóutis</t>
+          <t>sou</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>notar</t>
+          <t>coser</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11090</v>
+        <v>11208</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>observe</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>obzérv</t>
+          <t>uóter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>observar</t>
+          <t>regar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11091</v>
+        <v>11209</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>detect</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ditékt</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>detectar</t>
+          <t>plantar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11092</v>
+        <v>11210</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>glance</t>
+          <t>paint</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>glans</t>
+          <t>peint</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>echar un vistazo</t>
+          <t>pintar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11093</v>
+        <v>11211</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>stare</t>
+          <t>decorate</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ster</t>
+          <t>dékoreit</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>mirar fijamente</t>
+          <t>decorar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11094</v>
+        <v>11212</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>peek</t>
+          <t>store</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pik</t>
+          <t>stor</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>espiar</t>
+          <t>almacenar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11095</v>
+        <v>11213</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>perceive</t>
+          <t>repair</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>persíiv</t>
+          <t>ripér</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>percibir</t>
+          <t>reparar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11096</v>
+        <v>11214</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sense</t>
+          <t>arrange</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sens</t>
+          <t>aréindy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>presenciar</t>
+          <t>organizar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11097</v>
+        <v>11215</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>fold</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>viu</t>
+          <t>fold</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ver (visualizar)</t>
+          <t>doblar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11098</v>
+        <v>11216</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>scan</t>
+          <t>hang</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>skan</t>
+          <t>jang</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>escanear</t>
+          <t>colgar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11099</v>
+        <v>11217</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>scrub</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>igzámin</t>
+          <t>skrob</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>examinar</t>
+          <t>restregar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1874,420 +1874,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11020</v>
+        <v>11218</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wake</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ueik</t>
+          <t>trável</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>despertar</t>
+          <t>viajar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11021</v>
+        <v>11219</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sleep</t>
+          <t>drive</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>slip</t>
+          <t>draiv</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dormir</t>
+          <t>conducir</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11022</v>
+        <v>11220</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>eat</t>
+          <t>fly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>iit</t>
+          <t>flai</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>comer</t>
+          <t>volar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11023</v>
+        <v>11221</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>drink</t>
+          <t>sail</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>driink</t>
+          <t>seil</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>beber</t>
+          <t>navegar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11024</v>
+        <v>11222</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>brush</t>
+          <t>ride</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>brosh</t>
+          <t>raid</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cepillar</t>
+          <t>cabalgar/montar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11025</v>
+        <v>11223</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>shower</t>
+          <t>board</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sháuer</t>
+          <t>bord</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ducharse</t>
+          <t>abordar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11026</v>
+        <v>11224</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>depart</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>guet</t>
+          <t>dipárt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>conseguir</t>
+          <t>partir</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11027</v>
+        <v>11225</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>arrive</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dres</t>
+          <t>aráiv</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vestirse</t>
+          <t>llegar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11028</v>
+        <v>11226</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cook</t>
+          <t>land</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kuk</t>
+          <t>land</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cocinar</t>
+          <t>aterrizar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11029</v>
+        <v>11227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>clean</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>klin</t>
+          <t>park</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>limpiar</t>
+          <t>estacionar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11030</v>
+        <v>11228</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wash</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>uosh</t>
+          <t>gaid</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>lavar</t>
+          <t>guiar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11031</v>
+        <v>11229</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dry</t>
+          <t>pack</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>drai</t>
+          <t>pak</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>secar</t>
+          <t>empacar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11032</v>
+        <v>11230</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>unpack</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>oupn</t>
+          <t>anpák</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>abrir</t>
+          <t>desempacar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11033</v>
+        <v>11231</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>close</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>klous</t>
+          <t>eksplór</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>cerrar</t>
+          <t>explorar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11034</v>
+        <v>11232</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>reserve</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>teik</t>
+          <t>risérv</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>tomar</t>
+          <t>reservar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11035</v>
+        <v>11233</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>check</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>put</t>
+          <t>chek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>poner</t>
+          <t>revisar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11036</v>
+        <v>11234</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>make</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>meik</t>
+          <t>ueit</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hacer</t>
+          <t>esperar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11037</v>
+        <v>11235</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>carry</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tern</t>
+          <t>kári</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>girar</t>
+          <t>llevar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11038</v>
+        <v>11236</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>start</t>
+          <t>transpórt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>empezar</t>
+          <t>transportar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11039</v>
+        <v>11237</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>return</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>ritérn</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>parar</t>
+          <t>volver</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2806,420 +2806,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11278</v>
+        <v>11258</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>get up</t>
+          <t>change</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>guet ap</t>
+          <t>cheindch</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>levantarse</t>
+          <t>cambiar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11279</v>
+        <v>11259</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>turn on</t>
+          <t>grow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>turn on</t>
+          <t>grou</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>encender</t>
+          <t>crecer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11280</v>
+        <v>11260</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>turn off</t>
+          <t>imprúuv</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>apagar</t>
+          <t>mejorar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11281</v>
+        <v>11261</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>look for</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>luk for</t>
+          <t>divélop</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>buscar</t>
+          <t>desarrollar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11282</v>
+        <v>11262</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>look after</t>
+          <t>become</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>luk áfter</t>
+          <t>bikám</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cuidar</t>
+          <t>llegar a ser</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11283</v>
+        <v>11263</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>transform</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>teik off</t>
+          <t>transfórm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>quitarse</t>
+          <t>transformar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11284</v>
+        <v>11264</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>put on</t>
+          <t>adapt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>put on</t>
+          <t>adápt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ponerse</t>
+          <t>adaptar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11285</v>
+        <v>11265</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>find out</t>
+          <t>evolve</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>faind aut</t>
+          <t>ivólv</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>descubrir</t>
+          <t>evolucionar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11286</v>
+        <v>11266</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>give up</t>
+          <t>switch</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>guiv ap</t>
+          <t>suich</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rendirse</t>
+          <t>cambiar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11287</v>
+        <v>11267</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>go on</t>
+          <t>upgrade</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gou on</t>
+          <t>apgréid</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>continuar</t>
+          <t>actualizar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11288</v>
+        <v>11268</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>come back</t>
+          <t>update</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>com bac</t>
+          <t>apdéit</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>volver</t>
+          <t>actualizar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11289</v>
+        <v>11269</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>check out</t>
+          <t>move</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chek aut</t>
+          <t>muuv</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>verificar</t>
+          <t>mover</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11290</v>
+        <v>11270</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>set up</t>
+          <t>replace</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>set ap</t>
+          <t>ripléis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>configurar</t>
+          <t>reemplazar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11291</v>
+        <v>11271</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>break down</t>
+          <t>fix</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>breik daun</t>
+          <t>fiks</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>romperse</t>
+          <t>arreglar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11292</v>
+        <v>11272</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>log in</t>
+          <t>adjust</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>log in</t>
+          <t>adchást</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>iniciar sesión</t>
+          <t>ajustar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11293</v>
+        <v>11273</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>log out</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>log aut</t>
+          <t>rais</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>cerrar sesión</t>
+          <t>aumentar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11294</v>
+        <v>11274</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fill in</t>
+          <t>fall</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fil in</t>
+          <t>fol</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>rellenar</t>
+          <t>caer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11295</v>
+        <v>11275</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>run out</t>
+          <t>reduce</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ron aut</t>
+          <t>ridiús</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>agotarse</t>
+          <t>reducir</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11296</v>
+        <v>11276</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>get in</t>
+          <t>increase</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>guet in</t>
+          <t>inkrís</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>entrar</t>
+          <t>aumentar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11297</v>
+        <v>11277</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>show up</t>
+          <t>simplify</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>shou ap</t>
+          <t>símplifai</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>aparecer</t>
+          <t>simplificar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3272,420 +3272,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11218</v>
+        <v>11278</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>get up</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trável</t>
+          <t>guet ap</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>viajar</t>
+          <t>levantarse</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11219</v>
+        <v>11279</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>drive</t>
+          <t>turn on</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>draiv</t>
+          <t>turn on</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>conducir</t>
+          <t>encender</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11220</v>
+        <v>11280</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fly</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>flai</t>
+          <t>turn off</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>volar</t>
+          <t>apagar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11221</v>
+        <v>11281</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sail</t>
+          <t>look for</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>seil</t>
+          <t>luk for</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>navegar</t>
+          <t>buscar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11222</v>
+        <v>11282</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ride</t>
+          <t>look after</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>raid</t>
+          <t>luk áfter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cabalgar/montar</t>
+          <t>cuidar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11223</v>
+        <v>11283</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>board</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bord</t>
+          <t>teik off</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>abordar</t>
+          <t>quitarse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11224</v>
+        <v>11284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>depart</t>
+          <t>put on</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>dipárt</t>
+          <t>put on</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>partir</t>
+          <t>ponerse</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11225</v>
+        <v>11285</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arrive</t>
+          <t>find out</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>aráiv</t>
+          <t>faind aut</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>llegar</t>
+          <t>descubrir</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11226</v>
+        <v>11286</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>give up</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>land</t>
+          <t>guiv ap</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>aterrizar</t>
+          <t>rendirse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11227</v>
+        <v>11287</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>go on</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>gou on</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>estacionar</t>
+          <t>continuar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11228</v>
+        <v>11288</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>come back</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gaid</t>
+          <t>com bac</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>guiar</t>
+          <t>volver</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11229</v>
+        <v>11289</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pack</t>
+          <t>check out</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pak</t>
+          <t>chek aut</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>empacar</t>
+          <t>verificar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11230</v>
+        <v>11290</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>unpack</t>
+          <t>set up</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>anpák</t>
+          <t>set ap</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>desempacar</t>
+          <t>configurar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11231</v>
+        <v>11291</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>break down</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>eksplór</t>
+          <t>breik daun</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>explorar</t>
+          <t>romperse</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11232</v>
+        <v>11292</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>reserve</t>
+          <t>log in</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>risérv</t>
+          <t>log in</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>reservar</t>
+          <t>iniciar sesión</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11233</v>
+        <v>11293</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>log out</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chek</t>
+          <t>log aut</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>revisar</t>
+          <t>cerrar sesión</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11234</v>
+        <v>11294</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>fill in</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ueit</t>
+          <t>fil in</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>esperar</t>
+          <t>rellenar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11235</v>
+        <v>11295</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carry</t>
+          <t>run out</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kári</t>
+          <t>ron aut</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>llevar</t>
+          <t>agotarse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11236</v>
+        <v>11296</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>get in</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>transpórt</t>
+          <t>guet in</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>transportar</t>
+          <t>entrar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11237</v>
+        <v>11297</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>show up</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ritérn</t>
+          <t>shou ap</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>volver</t>
+          <t>aparecer</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3738,420 +3738,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11258</v>
+        <v>11020</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>wake</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cheindch</t>
+          <t>ueik</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cambiar</t>
+          <t>despertar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11259</v>
+        <v>11021</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>grow</t>
+          <t>sleep</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>grou</t>
+          <t>slip</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>crecer</t>
+          <t>dormir</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11260</v>
+        <v>11022</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>eat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>imprúuv</t>
+          <t>iit</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>mejorar</t>
+          <t>comer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11261</v>
+        <v>11023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>drink</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>divélop</t>
+          <t>driink</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>desarrollar</t>
+          <t>beber</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11262</v>
+        <v>11024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>brush</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bikám</t>
+          <t>brosh</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>llegar a ser</t>
+          <t>cepillar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11263</v>
+        <v>11025</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>transform</t>
+          <t>shower</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>transfórm</t>
+          <t>sháuer</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>transformar</t>
+          <t>ducharse</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11264</v>
+        <v>11026</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adapt</t>
+          <t>get</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>adápt</t>
+          <t>guet</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>adaptar</t>
+          <t>conseguir</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11265</v>
+        <v>11027</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>evolve</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ivólv</t>
+          <t>dres</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>evolucionar</t>
+          <t>vestirse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11266</v>
+        <v>11028</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>switch</t>
+          <t>cook</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>suich</t>
+          <t>kuk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cambiar</t>
+          <t>cocinar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11267</v>
+        <v>11029</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>upgrade</t>
+          <t>clean</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>apgréid</t>
+          <t>klin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>actualizar</t>
+          <t>limpiar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11268</v>
+        <v>11030</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>update</t>
+          <t>wash</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>apdéit</t>
+          <t>uosh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>actualizar</t>
+          <t>lavar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11269</v>
+        <v>11031</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>move</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>muuv</t>
+          <t>drai</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>mover</t>
+          <t>secar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11270</v>
+        <v>11032</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>replace</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ripléis</t>
+          <t>oupn</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>reemplazar</t>
+          <t>abrir</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11271</v>
+        <v>11033</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fix</t>
+          <t>close</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fiks</t>
+          <t>klous</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>arreglar</t>
+          <t>cerrar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11272</v>
+        <v>11034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adjust</t>
+          <t>take</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>adchást</t>
+          <t>teik</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ajustar</t>
+          <t>tomar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11273</v>
+        <v>11035</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>put</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rais</t>
+          <t>put</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>aumentar</t>
+          <t>poner</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11274</v>
+        <v>11036</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fall</t>
+          <t>make</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fol</t>
+          <t>meik</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>caer</t>
+          <t>hacer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11275</v>
+        <v>11037</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>reduce</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ridiús</t>
+          <t>tern</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>reducir</t>
+          <t>girar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11276</v>
+        <v>11038</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>increase</t>
+          <t>start</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>inkrís</t>
+          <t>start</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>aumentar</t>
+          <t>empezar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11277</v>
+        <v>11039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>simplify</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>símplifai</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>simplificar</t>
+          <t>parar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4204,420 +4204,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11060</v>
+        <v>11040</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>say</t>
+          <t>think</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>zink</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>decir</t>
+          <t>pensar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11061</v>
+        <v>11041</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tell</t>
+          <t>know</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>tel</t>
+          <t>nou</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>contar</t>
+          <t>saber</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11062</v>
+        <v>11042</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>anderstend</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>preguntar</t>
+          <t>entender</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11063</v>
+        <v>11043</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>answer</t>
+          <t>remember</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ánser</t>
+          <t>rimémber</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>responder</t>
+          <t>recordar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11064</v>
+        <v>11044</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>talk</t>
+          <t>forget</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tok</t>
+          <t>forguet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hablar</t>
+          <t>olvidar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11065</v>
+        <v>11045</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>speak</t>
+          <t>believe</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>spik</t>
+          <t>bilíiv</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>hablar (formal)</t>
+          <t>creer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11066</v>
+        <v>11046</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>discuss</t>
+          <t>imagine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>diskás</t>
+          <t>imáyin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>discutir</t>
+          <t>imaginar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11067</v>
+        <v>11047</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>explain</t>
+          <t>guess</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ekspléin</t>
+          <t>ges</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>explicar</t>
+          <t>adivinar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11068</v>
+        <v>11048</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>shout</t>
+          <t>consider</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>shaut</t>
+          <t>konsíder</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gritar</t>
+          <t>considerar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11069</v>
+        <v>11049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>whisper</t>
+          <t>decide</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>uísper</t>
+          <t>disáid</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>susurrar</t>
+          <t>decidir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11070</v>
+        <v>11050</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>call</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>kol</t>
+          <t>lern</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>llamar</t>
+          <t>aprender</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11071</v>
+        <v>11051</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>reply</t>
+          <t>realize</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>riplái</t>
+          <t>ríalais</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>responder</t>
+          <t>darse cuenta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11072</v>
+        <v>11052</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mention</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ménshon</t>
+          <t>fóukas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>mencionar</t>
+          <t>enfocar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11073</v>
+        <v>11053</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>prómis</t>
+          <t>plan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>prometer</t>
+          <t>planear</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11074</v>
+        <v>11054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>agree</t>
+          <t>expect</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>agrí</t>
+          <t>ekspékt</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>estar de acuerdo</t>
+          <t>esperar (esperanza)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11075</v>
+        <v>11055</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>admit</t>
+          <t>suppose</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>admít</t>
+          <t>sapóus</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>admitir</t>
+          <t>suponer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11076</v>
+        <v>11056</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>argue</t>
+          <t>doubt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>arguiu</t>
+          <t>daut</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>discutir (pelear)</t>
+          <t>dudar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11077</v>
+        <v>11057</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>complain</t>
+          <t>notice</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kempléin</t>
+          <t>nóutis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>quejarse</t>
+          <t>notar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11078</v>
+        <v>11058</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>saguést</t>
+          <t>rékognais</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sugerir</t>
+          <t>reconocer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11079</v>
+        <v>11059</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>announce</t>
+          <t>wonder</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>anáuns</t>
+          <t>uónder</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>anunciar</t>
+          <t>preguntarse</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4633,7 +4633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4670,402 +4670,423 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11159</v>
+        <v>11060</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>breathe</t>
+          <t>say</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brid</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>respirar</t>
+          <t>decir</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11160</v>
+        <v>11061</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>blink</t>
+          <t>tell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>blink</t>
+          <t>tel</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>parpadear</t>
+          <t>contar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11161</v>
+        <v>11062</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sweat</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>suet</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sudar</t>
+          <t>preguntar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11162</v>
+        <v>11063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cry</t>
+          <t>answer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>krai</t>
+          <t>ánser</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>llorar</t>
+          <t>responder</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11163</v>
+        <v>11064</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cough</t>
+          <t>talk</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kof</t>
+          <t>tok</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>toser</t>
+          <t>hablar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11164</v>
+        <v>11065</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sneeze</t>
+          <t>speak</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>snis</t>
+          <t>spik</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>estornudar</t>
+          <t>hablar (formal)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11165</v>
+        <v>11066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>yawn</t>
+          <t>discuss</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ion</t>
+          <t>diskás</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>bostezar</t>
+          <t>discutir</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11166</v>
+        <v>11067</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>swallow</t>
+          <t>explain</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>suálou</t>
+          <t>ekspléin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>tragar</t>
+          <t>explicar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11167</v>
+        <v>11068</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>scratch</t>
+          <t>shout</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>skrach</t>
+          <t>shaut</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rascar</t>
+          <t>gritar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11168</v>
+        <v>11069</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nod</t>
+          <t>whisper</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nod</t>
+          <t>uísper</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>asentir</t>
+          <t>susurrar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11169</v>
+        <v>11070</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>call</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>strech</t>
+          <t>kol</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>estirarse</t>
+          <t>llamar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11170</v>
+        <v>11071</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bend</t>
+          <t>reply</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>bend</t>
+          <t>riplái</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>doblar</t>
+          <t>responder</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11171</v>
+        <v>11072</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>shiver</t>
+          <t>mention</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>shíver</t>
+          <t>ménshon</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>tiritar</t>
+          <t>mencionar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11172</v>
+        <v>11073</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>sniff</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>snif</t>
+          <t>prómis</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>olfatear</t>
+          <t>prometer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11173</v>
+        <v>11074</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>smile</t>
+          <t>agree</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>smail</t>
+          <t>agrí</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sonreír</t>
+          <t>estar de acuerdo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11174</v>
+        <v>11075</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>frown</t>
+          <t>admit</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fraun</t>
+          <t>admít</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fruncir el ceño</t>
+          <t>admitir</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11175</v>
+        <v>11076</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>touch</t>
+          <t>argue</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>toch</t>
+          <t>arguiu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tocar</t>
+          <t>discutir (pelear)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11176</v>
+        <v>11077</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>kick</t>
+          <t>complain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kik</t>
+          <t>kempléin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>patear</t>
+          <t>quejarse</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11177</v>
+        <v>11078</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rub</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rab</t>
+          <t>saguést</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>frotar</t>
+          <t>sugerir</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11079</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>announce</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>anáuns</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>anunciar</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5115,420 +5136,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11139</v>
+        <v>11080</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>see</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>laik</t>
+          <t>sii</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gustar</t>
+          <t>ver</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11140</v>
+        <v>11081</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>look</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>lov</t>
+          <t>luk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>amar</t>
+          <t>mirar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11141</v>
+        <v>11082</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hate</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>jeit</t>
+          <t>uoch</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>odiar</t>
+          <t>observar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11142</v>
+        <v>11083</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>enjoy</t>
+          <t>hear</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>inyói</t>
+          <t>jir</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>disfrutar</t>
+          <t>oír</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11143</v>
+        <v>11084</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prefer</t>
+          <t>listen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>prifér</t>
+          <t>lisen</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>preferir</t>
+          <t>escuchar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11144</v>
+        <v>11085</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>miss</t>
+          <t>smell</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mis</t>
+          <t>smel</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>extrañar</t>
+          <t>oler</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11145</v>
+        <v>11086</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>taste</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fir</t>
+          <t>teist</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>temer</t>
+          <t>probar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11146</v>
+        <v>11087</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>worry</t>
+          <t>touch</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>uári</t>
+          <t>toch</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>preocuparse</t>
+          <t>tocar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11147</v>
+        <v>11088</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>care</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ker</t>
+          <t>fiil</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>importar</t>
+          <t>sentir</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11148</v>
+        <v>11089</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>feel</t>
+          <t>notice</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fiil</t>
+          <t>nóutis</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sentir</t>
+          <t>notar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11149</v>
+        <v>11090</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>observe</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nid</t>
+          <t>obzérv</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>necesitar</t>
+          <t>observar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11150</v>
+        <v>11091</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>desire</t>
+          <t>detect</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>disáir</t>
+          <t>ditékt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>desear</t>
+          <t>detectar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11151</v>
+        <v>11092</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>appreciate</t>
+          <t>glance</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>apríshieit</t>
+          <t>glans</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>apreciar</t>
+          <t>echar un vistazo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11152</v>
+        <v>11093</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>envy</t>
+          <t>stare</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>énvi</t>
+          <t>ster</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>envidiar</t>
+          <t>mirar fijamente</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11153</v>
+        <v>11094</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>peek</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>trast</t>
+          <t>pik</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>confiar</t>
+          <t>espiar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11154</v>
+        <v>11095</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>perceive</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rispékt</t>
+          <t>persíiv</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>respetar</t>
+          <t>percibir</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11155</v>
+        <v>11096</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>sense</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>váluiu</t>
+          <t>sens</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>valorar</t>
+          <t>presenciar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11156</v>
+        <v>11097</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>regret</t>
+          <t>view</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>rigrét</t>
+          <t>viu</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>lamentar</t>
+          <t>ver (visualizar)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11157</v>
+        <v>11098</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>admire</t>
+          <t>scan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>admáir</t>
+          <t>skan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>admirar</t>
+          <t>escanear</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11158</v>
+        <v>11099</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>forgive</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>forguív</t>
+          <t>igzámin</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>perdonar</t>
+          <t>examinar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -5539,6 +5560,472 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Inglés</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Pronunciación</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Traducción</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Visualización</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11100</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jold</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>sostener</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11101</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>grab</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>grab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>agarrar</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11102</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pick</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pik</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>escoger</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11103</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>throw</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>zrou</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>lanzar</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11104</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kach</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>atrapar</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11105</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>empujar</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11106</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pul</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>tirar</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11107</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>break</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>breik</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>romper</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11108</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cut</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>kat</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>cortar</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11109</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>hit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>jit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>golpear</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11110</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>press</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pres</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>presionar</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11111</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>squeeze</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>skuís</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>apretar</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11112</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>twist</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>tuist</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>torcer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11113</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sheik</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>sacudir</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11114</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>drop</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>drop</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>soltar</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11115</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lift</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lift</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>levantar</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11116</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pour</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>por</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>verter</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11117</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>stretch</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>strech</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>estirar</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11118</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>tai</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>atar</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11119</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>wrap</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>rap</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>envolver</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5977,472 +6464,6 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Inglés</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Pronunciación</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Traducción</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Visualización</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>11198</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>cook</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>kuk</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>cocinar</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>11199</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>klin</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>limpiar</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>11200</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>wash</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>uosh</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>lavar</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>11201</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sweep</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>suip</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>barrer</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>11202</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mop</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mop</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>trapear</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>11203</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>vacuum</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>vákium</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>aspirar</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>11204</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>tidy</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>táidi</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ordenar</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>11205</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>fix</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>fiks</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>arreglar</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>11206</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>iron</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>áirn</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>planchar</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11207</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sew</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sou</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>coser</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11208</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>uóter</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>regar</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11209</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>plant</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>plant</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>plantar</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>11210</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>paint</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>peint</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>pintar</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>11211</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>decorate</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>dékoreit</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>decorar</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>11212</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>store</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>stor</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>almacenar</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>11213</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>repair</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ripér</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>reparar</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>11214</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>arrange</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>aréindy</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>organizar</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>11215</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>fold</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>fold</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>doblar</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>11216</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>hang</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>jang</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>colgar</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>11217</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>scrub</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>skrob</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>restregar</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6492,420 +6513,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11100</v>
+        <v>11139</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hold</t>
+          <t>like</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jold</t>
+          <t>laik</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sostener</t>
+          <t>gustar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11101</v>
+        <v>11140</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>grab</t>
+          <t>love</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>grab</t>
+          <t>lov</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>agarrar</t>
+          <t>amar</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11102</v>
+        <v>11141</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pick</t>
+          <t>hate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pik</t>
+          <t>jeit</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>escoger</t>
+          <t>odiar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11103</v>
+        <v>11142</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>throw</t>
+          <t>enjoy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>zrou</t>
+          <t>inyói</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lanzar</t>
+          <t>disfrutar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11104</v>
+        <v>11143</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>prefer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>kach</t>
+          <t>prifér</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>atrapar</t>
+          <t>preferir</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11105</v>
+        <v>11144</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>miss</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>push</t>
+          <t>mis</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>empujar</t>
+          <t>extrañar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11106</v>
+        <v>11145</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pull</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pul</t>
+          <t>fir</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>tirar</t>
+          <t>temer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11107</v>
+        <v>11146</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>break</t>
+          <t>worry</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>breik</t>
+          <t>uári</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>romper</t>
+          <t>preocuparse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11108</v>
+        <v>11147</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cut</t>
+          <t>care</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kat</t>
+          <t>ker</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cortar</t>
+          <t>importar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11109</v>
+        <v>11148</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hit</t>
+          <t>feel</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jit</t>
+          <t>fiil</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>golpear</t>
+          <t>sentir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11110</v>
+        <v>11149</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>press</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pres</t>
+          <t>nid</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>presionar</t>
+          <t>necesitar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11111</v>
+        <v>11150</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>squeeze</t>
+          <t>desire</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>skuís</t>
+          <t>disáir</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>apretar</t>
+          <t>desear</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11112</v>
+        <v>11151</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>twist</t>
+          <t>appreciate</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>tuist</t>
+          <t>apríshieit</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>torcer</t>
+          <t>apreciar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11113</v>
+        <v>11152</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>envy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sheik</t>
+          <t>énvi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sacudir</t>
+          <t>envidiar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11114</v>
+        <v>11153</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>drop</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>drop</t>
+          <t>trast</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>soltar</t>
+          <t>confiar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11115</v>
+        <v>11154</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lift</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>lift</t>
+          <t>rispékt</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>levantar</t>
+          <t>respetar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11116</v>
+        <v>11155</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pour</t>
+          <t>value</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>por</t>
+          <t>váluiu</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>verter</t>
+          <t>valorar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11117</v>
+        <v>11156</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>stretch</t>
+          <t>regret</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>strech</t>
+          <t>rigrét</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>estirar</t>
+          <t>lamentar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11118</v>
+        <v>11157</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>admire</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>admáir</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>atar</t>
+          <t>admirar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11119</v>
+        <v>11158</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wrap</t>
+          <t>forgive</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>rap</t>
+          <t>forguív</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>envolver</t>
+          <t>perdonar</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -6921,7 +6942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6958,423 +6979,402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11040</v>
+        <v>11159</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>think</t>
+          <t>breathe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>zink</t>
+          <t>brid</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pensar</t>
+          <t>respirar</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11041</v>
+        <v>11160</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>blink</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nou</t>
+          <t>blink</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>saber</t>
+          <t>parpadear</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11042</v>
+        <v>11161</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>sweat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>anderstend</t>
+          <t>suet</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>entender</t>
+          <t>sudar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11043</v>
+        <v>11162</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>remember</t>
+          <t>cry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>rimémber</t>
+          <t>krai</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>recordar</t>
+          <t>llorar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11044</v>
+        <v>11163</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>forget</t>
+          <t>cough</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>forguet</t>
+          <t>kof</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>olvidar</t>
+          <t>toser</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11045</v>
+        <v>11164</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>believe</t>
+          <t>sneeze</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bilíiv</t>
+          <t>snis</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>creer</t>
+          <t>estornudar</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11046</v>
+        <v>11165</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>imagine</t>
+          <t>yawn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>imáyin</t>
+          <t>ion</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>imaginar</t>
+          <t>bostezar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11047</v>
+        <v>11166</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>guess</t>
+          <t>swallow</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ges</t>
+          <t>suálou</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>adivinar</t>
+          <t>tragar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11048</v>
+        <v>11167</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>consider</t>
+          <t>scratch</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>konsíder</t>
+          <t>skrach</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>considerar</t>
+          <t>rascar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11049</v>
+        <v>11168</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>nod</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>disáid</t>
+          <t>nod</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>decidir</t>
+          <t>asentir</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11050</v>
+        <v>11169</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>stretch</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>lern</t>
+          <t>strech</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>aprender</t>
+          <t>estirarse</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11051</v>
+        <v>11170</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>realize</t>
+          <t>bend</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ríalais</t>
+          <t>bend</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>darse cuenta</t>
+          <t>doblar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11052</v>
+        <v>11171</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>shiver</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fóukas</t>
+          <t>shíver</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>enfocar</t>
+          <t>tiritar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11053</v>
+        <v>11172</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>sniff</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>plan</t>
+          <t>snif</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>planear</t>
+          <t>olfatear</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11054</v>
+        <v>11173</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>expect</t>
+          <t>smile</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ekspékt</t>
+          <t>smail</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>esperar (esperanza)</t>
+          <t>sonreír</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11055</v>
+        <v>11174</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>suppose</t>
+          <t>frown</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sapóus</t>
+          <t>fraun</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>suponer</t>
+          <t>fruncir el ceño</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11056</v>
+        <v>11175</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>doubt</t>
+          <t>touch</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>daut</t>
+          <t>toch</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>dudar</t>
+          <t>tocar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11057</v>
+        <v>11176</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>notice</t>
+          <t>kick</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nóutis</t>
+          <t>kik</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>notar</t>
+          <t>patear</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11058</v>
+        <v>11177</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>recognize</t>
+          <t>rub</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>rékognais</t>
+          <t>rab</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>reconocer</t>
+          <t>frotar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>11059</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>wonder</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>uónder</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>preguntarse</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
